--- a/data/trans_dic/P36$otros-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,37 +686,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,6</t>
+          <t>0,37; 2,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,87</t>
+          <t>0,2; 1,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,02</t>
+          <t>2,72; 7,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,73</t>
+          <t>0,29; 2,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,55</t>
+          <t>1,27; 5,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,77</t>
+          <t>3,23; 8,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,99</t>
+          <t>0,47; 2,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,11</t>
+          <t>3,54; 6,8</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,04</t>
+          <t>1,31; 5,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,19</t>
+          <t>0,24; 2,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,55</t>
+          <t>2,19; 6,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,19</t>
+          <t>0,57; 3,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,32</t>
+          <t>0,0; 3,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,98</t>
+          <t>1,62; 5,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,45</t>
+          <t>1,19; 3,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,78</t>
+          <t>0,38; 1,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,63</t>
+          <t>2,35; 5,31</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,35</t>
+          <t>1,01; 3,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,21</t>
+          <t>0,53; 2,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,26</t>
+          <t>2,68; 6,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,69</t>
+          <t>0,0; 3,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,8</t>
+          <t>0,37; 3,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,6</t>
+          <t>0,61; 6,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,72</t>
+          <t>0,88; 2,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,15</t>
+          <t>0,72; 2,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,43</t>
+          <t>2,54; 5,54</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,98</t>
+          <t>1,27; 2,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,46</t>
+          <t>0,71; 2,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,25</t>
+          <t>3,54; 6,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,3</t>
+          <t>1,1; 3,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,47</t>
+          <t>0,56; 2,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,74</t>
+          <t>2,14; 4,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,76</t>
+          <t>1,49; 2,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,03</t>
+          <t>0,82; 2,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,06</t>
+          <t>3,32; 5,15</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,1</t>
+          <t>0,72; 4,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,72</t>
+          <t>0,19; 1,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,34</t>
+          <t>1,61; 4,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,08</t>
+          <t>0,36; 2,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,76</t>
+          <t>0,3; 1,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 7,76</t>
+          <t>4,24; 7,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,32</t>
+          <t>0,7; 2,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,42</t>
+          <t>0,41; 1,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,61</t>
+          <t>3,42; 5,72</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,41</t>
+          <t>0,33; 3,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,43</t>
+          <t>1,19; 5,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,91</t>
+          <t>1,37; 2,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,55</t>
+          <t>0,38; 1,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,1</t>
+          <t>2,66; 5,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,66</t>
+          <t>1,26; 2,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,43</t>
+          <t>0,43; 1,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,75</t>
+          <t>2,61; 4,86</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,38</t>
+          <t>1,37; 2,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,49</t>
+          <t>0,74; 1,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,75</t>
+          <t>3,28; 4,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,06</t>
+          <t>1,24; 2,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,57</t>
+          <t>0,8; 1,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 4,86</t>
+          <t>3,48; 4,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,1</t>
+          <t>1,42; 2,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,41</t>
+          <t>0,86; 1,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 4,63</t>
+          <t>3,62; 4,58</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, otros alimentos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5224</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2807</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19601</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3065</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8403</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19274</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8289</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11210</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38875</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1765; 11559</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>884; 7865</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11673; 30343</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>893; 8138</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3987; 16955</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11207; 29446</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3702; 16313</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5343; 20584</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27478; 52788</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9579</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3959</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15105</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5660</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2798</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12111</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15239</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6757</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27216</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4790; 18641</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>993; 9278</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8275; 25563</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2108; 11914</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11147</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6022; 22158</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8731; 24336</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2890; 14631</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17576; 39734</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9830</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7593</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21809</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11667</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11468</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25685</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5433; 17724</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3306; 15912</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13979; 32538</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6471</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>966; 9410</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1019; 11111</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6222; 19806</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6360; 19987</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17482; 38078</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25178</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15799</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>54194</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14220</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9635</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26680</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>39398</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25434</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>80874</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>15722; 36777</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8231; 27329</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>40668; 69901</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7814; 23909</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4287; 17623</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17659; 38013</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28971; 53191</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15729; 39314</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>65534; 101594</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6513</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3854</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17227</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5511</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6446</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43229</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12024</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10299</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>60456</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2521; 14349</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>972; 9541</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9970; 27174</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2039; 11831</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2250; 12797</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>31335; 58871</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6427; 20418</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5158; 19350</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>46468; 77606</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7847</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>25238</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9239</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>41279</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>28270</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11173</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>49126</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>985; 9044</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6827</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3421; 16235</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17114; 36796</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4201; 17515</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>28686; 54209</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19499; 40701</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5976; 18722</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>35695; 66436</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>59356</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>35946</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>135783</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>55531</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>40396</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>146449</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>114886</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>76342</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>282232</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>44792; 77409</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>25274; 51526</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>110937; 157228</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>41998; 71443</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>28191; 54021</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>122819; 171894</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>94255; 137308</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>59879; 96854</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>250364; 316519</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36$otros-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
